--- a/screen_layout_calculations.xlsx
+++ b/screen_layout_calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\home\fri3d\fri3d-lasertag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2749CAA1-6DCB-44B9-B84A-5DA4656377A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C86827-1160-4401-8881-329F1787F086}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26760" yWindow="5220" windowWidth="23130" windowHeight="21705" xr2:uid="{2ECAEAAB-375A-4101-BC58-5920FBD64875}"/>
+    <workbookView xWindow="38235" yWindow="6015" windowWidth="19125" windowHeight="21705" xr2:uid="{2ECAEAAB-375A-4101-BC58-5920FBD64875}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
-  <si>
-    <t>totaal</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
   <si>
     <t>border</t>
   </si>
@@ -62,9 +59,6 @@
     <t>hline</t>
   </si>
   <si>
-    <t>upper left</t>
-  </si>
-  <si>
     <t>total height</t>
   </si>
   <si>
@@ -78,6 +72,21 @@
   </si>
   <si>
     <t>width</t>
+  </si>
+  <si>
+    <t>width calculations left to right</t>
+  </si>
+  <si>
+    <t>height calculation top to bottom</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>(upper) left</t>
+  </si>
+  <si>
+    <t>upper (left)</t>
   </si>
 </sst>
 </file>
@@ -436,332 +445,367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B07A6B-EB78-4CC6-81E7-6D5A312F99C1}">
-  <dimension ref="B1:K37"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <f>SUM(C5:C7)</f>
+        <v>14</v>
+      </c>
+      <c r="G8" s="1">
+        <f>E32</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <f>SUM(C5:C9)</f>
+        <v>37</v>
+      </c>
+      <c r="G10" s="1">
+        <f>E32</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <f>SUM(C7:C11)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <f>SUM(C5:C11)+C13/2</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <f>SUM(C5:C15)</f>
+        <v>92</v>
+      </c>
+      <c r="G16" s="1">
+        <f>E36</f>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>68</v>
+      </c>
+      <c r="D18">
+        <f>SUM(C5:C17)</f>
+        <v>121</v>
+      </c>
+      <c r="G18" s="1">
+        <f>E36</f>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <f>SUM(C15:C19)</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <f>SUM(C5:C19)+C21/2</f>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <f>SUM(C5:C23)</f>
+        <v>209</v>
+      </c>
+      <c r="G24" s="1">
+        <f>E36</f>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <f>SUM(C23:C25)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <f>SUM(C5:C27)</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J31" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>240</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>96</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32">
+        <v>8</v>
+      </c>
+      <c r="H32">
+        <v>6</v>
+      </c>
+      <c r="I32">
+        <v>96</v>
+      </c>
+      <c r="J32">
+        <v>6</v>
+      </c>
+      <c r="K32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33">
+        <f>SUM(C32:D32)</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="I33">
+        <f>SUM(C32:H32)</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>240</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>17</v>
-      </c>
-      <c r="D7">
-        <f>SUM(C4:C6)</f>
-        <v>14</v>
-      </c>
-      <c r="H7" s="1">
-        <f>E34</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
-        <v>35</v>
-      </c>
-      <c r="D9">
-        <f>SUM(C4:C8)</f>
-        <v>37</v>
-      </c>
-      <c r="H9" s="1">
-        <f>E34</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="F10">
-        <f>SUM(C6:C10)</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <f>SUM(C4:C10)+C12/2</f>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1">
-        <v>17</v>
-      </c>
-      <c r="D15">
-        <f>SUM(C4:C14)</f>
-        <v>92</v>
-      </c>
-      <c r="H15" s="1">
-        <f>E37</f>
+      <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36">
         <v>212</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="1">
-        <v>68</v>
-      </c>
-      <c r="D17">
-        <f>SUM(C4:C16)</f>
-        <v>121</v>
-      </c>
-      <c r="H17" s="1">
-        <f>E37</f>
-        <v>212</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18">
-        <v>6</v>
-      </c>
-      <c r="F18">
-        <f>SUM(C14:C18)</f>
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20">
-        <v>8</v>
-      </c>
-      <c r="D20">
-        <f>SUM(C4:C18)+C20/2</f>
-        <v>199</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="1">
-        <v>17</v>
-      </c>
-      <c r="D23">
-        <f>SUM(C4:C22)</f>
-        <v>209</v>
-      </c>
-      <c r="H23" s="1">
-        <f>E37</f>
-        <v>212</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24">
-        <v>6</v>
-      </c>
-      <c r="F24">
-        <f>SUM(C22:C24)</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C27">
-        <f>SUM(C4:C26)</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" t="s">
-        <v>2</v>
-      </c>
-      <c r="F33" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" t="s">
-        <v>6</v>
-      </c>
-      <c r="I33" t="s">
-        <v>13</v>
-      </c>
-      <c r="J33" t="s">
-        <v>6</v>
-      </c>
-      <c r="K33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C34">
-        <v>8</v>
-      </c>
-      <c r="D34">
-        <v>6</v>
-      </c>
-      <c r="E34">
-        <v>96</v>
-      </c>
-      <c r="F34">
-        <v>6</v>
-      </c>
-      <c r="G34">
-        <v>8</v>
-      </c>
-      <c r="H34">
-        <v>6</v>
-      </c>
-      <c r="I34">
-        <v>96</v>
-      </c>
-      <c r="J34">
-        <v>6</v>
-      </c>
-      <c r="K34">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" t="s">
-        <v>3</v>
-      </c>
-      <c r="J36" t="s">
-        <v>6</v>
-      </c>
-      <c r="K36" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C37">
-        <v>8</v>
-      </c>
-      <c r="D37">
-        <v>6</v>
-      </c>
-      <c r="E37">
-        <v>212</v>
-      </c>
-      <c r="J37">
-        <v>6</v>
-      </c>
-      <c r="K37">
+      <c r="J36">
+        <v>6</v>
+      </c>
+      <c r="K36">
         <v>8</v>
       </c>
     </row>
